--- a/CodeByte/TestData/TestData.xlsx
+++ b/CodeByte/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -30,13 +30,22 @@
     <t>BaseUrl</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/index.php/auth/login</t>
   </si>
   <si>
     <t>admin1</t>
   </si>
   <si>
-    <t>https://adactinhotelapp.com/</t>
+    <t>UserLeaveList</t>
+  </si>
+  <si>
+    <t>My Leave List</t>
   </si>
 </sst>
 </file>
@@ -365,20 +374,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +398,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -399,23 +412,39 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>